--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value70.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value70.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9332435040501758</v>
+        <v>1.333228349685669</v>
       </c>
       <c r="B1">
-        <v>1.699254793312539</v>
+        <v>1.419899940490723</v>
       </c>
       <c r="C1">
-        <v>1.880630773234935</v>
+        <v>1.192110419273376</v>
       </c>
       <c r="D1">
-        <v>2.202302908054965</v>
+        <v>2.24606728553772</v>
       </c>
       <c r="E1">
-        <v>2.601341715159742</v>
+        <v>5.249097347259521</v>
       </c>
     </row>
   </sheetData>
